--- a/biology/Zoologie/Dolomedes_plantarius/Dolomedes_plantarius.xlsx
+++ b/biology/Zoologie/Dolomedes_plantarius/Dolomedes_plantarius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dolomedes plantarius est une espèce d'araignées aranéomorphes de la famille des Pisauridae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dolomedes plantarius est une espèce d'araignées aranéomorphes de la famille des Pisauridae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Europe[1], de la France à la Sibérie occidentale en Russie .
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Europe, de la France à la Sibérie occidentale en Russie .
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est inféodée aux zones humides.
 </t>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 10 à 16 mm et les femelles de 13 à 20 mm[2]. Cette espèce est très similaire à D. fimbriatus, leur principale différence est visible aux organes génitaux.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 10 à 16 mm et les femelles de 13 à 20 mm. Cette espèce est très similaire à D. fimbriatus, leur principale différence est visible aux organes génitaux.
 </t>
         </is>
       </c>
@@ -604,10 +622,12 @@
           <t>Dolomedes plantarius et l'Homme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette araignée, rare en Grande-Bretagne (2 localisations), a fait l'objet d'un lâcher massif en octobre 2010 dans la réserve naturelle de Castle Marshes au Suffolk[3],[4].
-En France, cette espèce est considérée comme vulnérable par l'IUCN, et en danger d'extinction dans le Nord-pas de Calais (Critique)[5] et en Picardie (En danger)[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette araignée, rare en Grande-Bretagne (2 localisations), a fait l'objet d'un lâcher massif en octobre 2010 dans la réserve naturelle de Castle Marshes au Suffolk,.
+En France, cette espèce est considérée comme vulnérable par l'IUCN, et en danger d'extinction dans le Nord-pas de Calais (Critique) et en Picardie (En danger).
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Clerck, 1757 : Svenska spindlar, uti sina hufvud-slågter indelte samt under några och sextio särskildte arter beskrefne och med illuminerade figurer uplyste. Stockholmiae, p. 1-154.</t>
         </is>
